--- a/data/trans_orig/P2B_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2B_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>79914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65464</v>
+        <v>63280</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97509</v>
+        <v>97803</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2204664287529101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1806014230180025</v>
+        <v>0.1745758860816504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2690064886571776</v>
+        <v>0.2698182948843429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -765,19 +765,19 @@
         <v>67786</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55687</v>
+        <v>54895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83513</v>
+        <v>83774</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2717123775237772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2232121880812909</v>
+        <v>0.2200414320839209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3347517379850233</v>
+        <v>0.3357957142955489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -786,19 +786,19 @@
         <v>147701</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127931</v>
+        <v>127503</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170285</v>
+        <v>169982</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2413580094167433</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2090521584800201</v>
+        <v>0.2083536105270636</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2782630972376916</v>
+        <v>0.2777681489918992</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>282565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264970</v>
+        <v>264676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>297015</v>
+        <v>299199</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.77953357124709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7309935113428224</v>
+        <v>0.7301817051156571</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8193985769819975</v>
+        <v>0.8254241139183494</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -836,19 +836,19 @@
         <v>181692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165965</v>
+        <v>165704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>193791</v>
+        <v>194583</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7282876224762227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6652482620149767</v>
+        <v>0.6642042857044511</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.776787811918709</v>
+        <v>0.7799585679160791</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>450</v>
@@ -857,19 +857,19 @@
         <v>464256</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>441672</v>
+        <v>441975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>484026</v>
+        <v>484454</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7586419905832567</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7217369027623085</v>
+        <v>0.7222318510081008</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.79094784151998</v>
+        <v>0.7916463894729364</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>58739</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45486</v>
+        <v>45547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71691</v>
+        <v>72646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.220674507476921</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1708855001627131</v>
+        <v>0.1711141999704555</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2693333759221204</v>
+        <v>0.272920136113757</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -982,19 +982,19 @@
         <v>88592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72758</v>
+        <v>72864</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>104079</v>
+        <v>104143</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3000625182018377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2464349346751042</v>
+        <v>0.2467937861694116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3525191565472551</v>
+        <v>0.3527343396560141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -1003,19 +1003,19 @@
         <v>147331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126644</v>
+        <v>126116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171400</v>
+        <v>169366</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2624234413372568</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2255766786503623</v>
+        <v>0.2246358290389023</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3052957732403045</v>
+        <v>0.301673118714072</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>207440</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>194488</v>
+        <v>193533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>220693</v>
+        <v>220632</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7793254925230789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7306666240778796</v>
+        <v>0.727079863886243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8291144998372869</v>
+        <v>0.8288858000295445</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -1053,19 +1053,19 @@
         <v>206652</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191165</v>
+        <v>191101</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222486</v>
+        <v>222380</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6999374817981623</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6474808434527449</v>
+        <v>0.6472656603439857</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7535650653248951</v>
+        <v>0.7532062138305879</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>402</v>
@@ -1074,19 +1074,19 @@
         <v>414092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>390023</v>
+        <v>392057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>434779</v>
+        <v>435307</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7375765586627433</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6947042267596951</v>
+        <v>0.6983268812859276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7744233213496377</v>
+        <v>0.7753641709610972</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>99471</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83262</v>
+        <v>82749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118044</v>
+        <v>118446</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.229024917239023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.191703433713233</v>
+        <v>0.1905225564083068</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2717870413030047</v>
+        <v>0.2727117363211546</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1199,19 +1199,19 @@
         <v>44064</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33681</v>
+        <v>33870</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56685</v>
+        <v>56657</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2914343850459515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.222759988871311</v>
+        <v>0.2240124544998538</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.374904707112639</v>
+        <v>0.3747183349979774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -1220,19 +1220,19 @@
         <v>143536</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124310</v>
+        <v>122640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>166436</v>
+        <v>165445</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2451407447781096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.212304682541222</v>
+        <v>0.2094533353262341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2842504451124707</v>
+        <v>0.2825584566193622</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>334855</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>316282</v>
+        <v>315880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>351064</v>
+        <v>351577</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7709750827609769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7282129586969953</v>
+        <v>0.7272882636788454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8082965662867669</v>
+        <v>0.8094774435916929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>106</v>
@@ -1270,19 +1270,19 @@
         <v>107134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94513</v>
+        <v>94541</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117517</v>
+        <v>117328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7085656149540485</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.625095292887361</v>
+        <v>0.6252816650020226</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.777240011128689</v>
+        <v>0.7759875455001461</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>440</v>
@@ -1291,19 +1291,19 @@
         <v>441989</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>419089</v>
+        <v>420080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>461215</v>
+        <v>462885</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7548592552218905</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7157495548875292</v>
+        <v>0.7174415433806381</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7876953174587781</v>
+        <v>0.7905466646737659</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>215647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190411</v>
+        <v>193172</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>243598</v>
+        <v>244300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2192944647987228</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1936307845466752</v>
+        <v>0.1964393775810829</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2477174655496557</v>
+        <v>0.2484320640644315</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>151</v>
@@ -1416,19 +1416,19 @@
         <v>156930</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134969</v>
+        <v>136204</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179300</v>
+        <v>178197</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2609266299254847</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2244118730590462</v>
+        <v>0.2264647344514061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2981209654871115</v>
+        <v>0.2962866608824234</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>365</v>
@@ -1437,19 +1437,19 @@
         <v>372578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>340197</v>
+        <v>339086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>407527</v>
+        <v>406020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2350939048060926</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.214662101210307</v>
+        <v>0.2139607439649051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2571465354371288</v>
+        <v>0.256195693668924</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>767722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>739771</v>
+        <v>739069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>792958</v>
+        <v>790197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7807055352012772</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7522825344503443</v>
+        <v>0.7515679359355685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8063692154533249</v>
+        <v>0.8035606224189171</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>435</v>
@@ -1487,19 +1487,19 @@
         <v>444504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>422134</v>
+        <v>423237</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>466465</v>
+        <v>465230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7390733700745153</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7018790345128885</v>
+        <v>0.7037133391175766</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7755881269409537</v>
+        <v>0.773535265548594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1203</v>
@@ -1508,19 +1508,19 @@
         <v>1212225</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1177276</v>
+        <v>1178783</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1244606</v>
+        <v>1245717</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7649060951939074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7428534645628714</v>
+        <v>0.7438043063310757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7853378987896933</v>
+        <v>0.7860392560350944</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>59827</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47645</v>
+        <v>46169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76319</v>
+        <v>74916</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2222925756274032</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1770294680160172</v>
+        <v>0.1715457127736241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.283571885264671</v>
+        <v>0.2783587783918762</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>124</v>
@@ -1633,19 +1633,19 @@
         <v>129176</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109600</v>
+        <v>110019</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148850</v>
+        <v>148972</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.257273431366066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2182837335382855</v>
+        <v>0.2191178666627525</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2964569088483319</v>
+        <v>0.2966991968302358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>182</v>
@@ -1654,19 +1654,19 @@
         <v>189003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>167087</v>
+        <v>164646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214528</v>
+        <v>212746</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2450662460584409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2166492032943484</v>
+        <v>0.2134837190275885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2781620372003887</v>
+        <v>0.2758516739340542</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>209309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192817</v>
+        <v>194220</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>221491</v>
+        <v>222967</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7777074243725968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7164281147353289</v>
+        <v>0.7216412216081239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8229705319839827</v>
+        <v>0.828454287226376</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>354</v>
@@ -1704,19 +1704,19 @@
         <v>372922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>353248</v>
+        <v>353126</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>392498</v>
+        <v>392079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7427265686339339</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7035430911516681</v>
+        <v>0.7033008031697642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7817162664617145</v>
+        <v>0.7808821333372473</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>562</v>
@@ -1725,19 +1725,19 @@
         <v>582231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>556706</v>
+        <v>558488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>604147</v>
+        <v>606588</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7549337539415591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7218379627996119</v>
+        <v>0.7241483260659459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7833507967056519</v>
+        <v>0.7865162809724116</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>24490</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16025</v>
+        <v>16400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34800</v>
+        <v>34918</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1687184187018001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1103967463122902</v>
+        <v>0.1129814862571422</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2397414311492077</v>
+        <v>0.2405576498519811</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>258</v>
@@ -1850,19 +1850,19 @@
         <v>264898</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>235187</v>
+        <v>236669</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>292708</v>
+        <v>296633</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2468931096101856</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2192014731567124</v>
+        <v>0.2205830203125152</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2728130409519173</v>
+        <v>0.2764710142705247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>282</v>
@@ -1871,19 +1871,19 @@
         <v>289389</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>262553</v>
+        <v>258584</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>318396</v>
+        <v>319039</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2375772587336576</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2155462292536009</v>
+        <v>0.2122878546386197</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.261391161032618</v>
+        <v>0.2619191239699053</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>120665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110355</v>
+        <v>110237</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>129130</v>
+        <v>128755</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8312815812981998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7602585688507923</v>
+        <v>0.7594423501480188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8896032536877098</v>
+        <v>0.8870185137428578</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>798</v>
@@ -1921,19 +1921,19 @@
         <v>808029</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>780219</v>
+        <v>776294</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>837740</v>
+        <v>836258</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7531068903898144</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7271869590480826</v>
+        <v>0.7235289857294753</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7807985268432877</v>
+        <v>0.7794169796874849</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>922</v>
@@ -1942,19 +1942,19 @@
         <v>928694</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>899687</v>
+        <v>899044</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>955530</v>
+        <v>959499</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7624227412663425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7386088389673819</v>
+        <v>0.7380808760300946</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7844537707463992</v>
+        <v>0.7877121453613802</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>538090</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>492102</v>
+        <v>496268</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>574509</v>
+        <v>577316</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2186783076209368</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1999891033345896</v>
+        <v>0.2016822420567667</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2334788282844853</v>
+        <v>0.2346198884459889</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>726</v>
@@ -2067,19 +2067,19 @@
         <v>751447</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>706507</v>
+        <v>699060</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>804100</v>
+        <v>797828</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.261611409278782</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2459656825929281</v>
+        <v>0.2433729845676911</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2799421092405593</v>
+        <v>0.2777585268894212</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1250</v>
@@ -2088,19 +2088,19 @@
         <v>1289537</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1223007</v>
+        <v>1226820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1351786</v>
+        <v>1354004</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.241802180638552</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2293270902098418</v>
+        <v>0.2300420314685921</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2534744430808658</v>
+        <v>0.2538904473663979</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1922555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1886136</v>
+        <v>1883329</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1968543</v>
+        <v>1964377</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7813216923790631</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7665211717155147</v>
+        <v>0.7653801115540111</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8000108966654106</v>
+        <v>0.7983177579432332</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2072</v>
@@ -2138,19 +2138,19 @@
         <v>2120933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2068280</v>
+        <v>2074552</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2165873</v>
+        <v>2173320</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.738388590721218</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7200578907594406</v>
+        <v>0.7222414731105787</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7540343174070718</v>
+        <v>0.7566270154323089</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3979</v>
@@ -2159,19 +2159,19 @@
         <v>4043488</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3981239</v>
+        <v>3979021</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4110018</v>
+        <v>4106205</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.758197819361448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7465255569191345</v>
+        <v>0.7461095526336022</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7706729097901585</v>
+        <v>0.769957968531408</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>170203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150336</v>
+        <v>151805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190934</v>
+        <v>190486</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5011626794888402</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4426644219492226</v>
+        <v>0.446989246848359</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5622061818781087</v>
+        <v>0.5608858793301658</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -2526,19 +2526,19 @@
         <v>150477</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132977</v>
+        <v>132069</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>167589</v>
+        <v>167023</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5731035649080066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.506454290732536</v>
+        <v>0.5029948710697825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6382754208105834</v>
+        <v>0.6361204877400053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>297</v>
@@ -2547,19 +2547,19 @@
         <v>320680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>295899</v>
+        <v>294612</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347154</v>
+        <v>349175</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5325306059783591</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4913783909965513</v>
+        <v>0.4892414149942377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5764943630610105</v>
+        <v>0.5798510471283556</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>169413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>148682</v>
+        <v>149130</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>189280</v>
+        <v>187811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4988373205111598</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4377938181218912</v>
+        <v>0.4391141206698344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5573355780507774</v>
+        <v>0.5530107531516411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -2597,19 +2597,19 @@
         <v>112088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94976</v>
+        <v>95542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129588</v>
+        <v>130496</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4268964350919934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3617245791894173</v>
+        <v>0.3638795122599947</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4935457092674645</v>
+        <v>0.4970051289302175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>249</v>
@@ -2618,19 +2618,19 @@
         <v>281501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>255027</v>
+        <v>253006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>306282</v>
+        <v>307569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4674693940216409</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4235056369389895</v>
+        <v>0.4201489528716446</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5086216090034488</v>
+        <v>0.5107585850057623</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>174783</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154354</v>
+        <v>154917</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>195523</v>
+        <v>194662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4965962358065608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4385528830891404</v>
+        <v>0.4401514003850069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5555217250560612</v>
+        <v>0.5530757971841861</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -2743,19 +2743,19 @@
         <v>189433</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>172825</v>
+        <v>170415</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>207317</v>
+        <v>206239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6293837494303495</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5742036865377896</v>
+        <v>0.5661966535936803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6888025253201434</v>
+        <v>0.6852197497636915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>326</v>
@@ -2764,19 +2764,19 @@
         <v>364216</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>335791</v>
+        <v>336476</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>388918</v>
+        <v>392051</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5578061946290355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5142719085398292</v>
+        <v>0.5153210045787578</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.595637920395496</v>
+        <v>0.6004351789084683</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>177179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>156439</v>
+        <v>157300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>197608</v>
+        <v>197045</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5034037641934392</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4444782749439387</v>
+        <v>0.4469242028158142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5614471169108596</v>
+        <v>0.5598485996149932</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>100</v>
@@ -2814,19 +2814,19 @@
         <v>111549</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>93665</v>
+        <v>94743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>128157</v>
+        <v>130567</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3706162505696505</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3111974746798565</v>
+        <v>0.3147802502363081</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4257963134622103</v>
+        <v>0.4338033464063196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>259</v>
@@ -2835,19 +2835,19 @@
         <v>288728</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>264026</v>
+        <v>260893</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>317153</v>
+        <v>316468</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4421938053709646</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.404362079604504</v>
+        <v>0.3995648210915317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4857280914601708</v>
+        <v>0.4846789954212422</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>268822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246993</v>
+        <v>240749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>295289</v>
+        <v>292068</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5128523542102524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4712082460981771</v>
+        <v>0.4592949756843249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5633451940177094</v>
+        <v>0.5572003974749032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -2960,19 +2960,19 @@
         <v>124761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109361</v>
+        <v>108802</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140634</v>
+        <v>139461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5321727350805842</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4664844642160288</v>
+        <v>0.4640970595836939</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5998802688642092</v>
+        <v>0.5948755164568081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -2981,19 +2981,19 @@
         <v>393583</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>368375</v>
+        <v>365197</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>424083</v>
+        <v>422377</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5188230414281526</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4855942690592513</v>
+        <v>0.4814043760002609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5590280934224395</v>
+        <v>0.5567791073495914</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>255348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228881</v>
+        <v>232102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277177</v>
+        <v>283421</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4871476457897475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4366548059822906</v>
+        <v>0.4427996025250969</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5287917539018229</v>
+        <v>0.5407050243156752</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -3031,19 +3031,19 @@
         <v>109676</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93803</v>
+        <v>94976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125076</v>
+        <v>125635</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4678272649194158</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4001197311357908</v>
+        <v>0.4051244835431918</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5335155357839712</v>
+        <v>0.5359029404163062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>341</v>
@@ -3052,19 +3052,19 @@
         <v>365024</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>334524</v>
+        <v>336230</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>390232</v>
+        <v>393410</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4811769585718474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4409719065775606</v>
+        <v>0.4432208926504086</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5144057309407487</v>
+        <v>0.5185956239997391</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>523764</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>492283</v>
+        <v>493377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>556200</v>
+        <v>558187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5450698716429345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5123082237166853</v>
+        <v>0.5134467900112086</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5788252570463791</v>
+        <v>0.5808936787051627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>376</v>
@@ -3177,19 +3177,19 @@
         <v>402280</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>374878</v>
+        <v>375760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>426922</v>
+        <v>428169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6105423475504218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5689552046536056</v>
+        <v>0.5702930450970098</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6479419008976498</v>
+        <v>0.649834535337964</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>872</v>
@@ -3198,19 +3198,19 @@
         <v>926044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>886320</v>
+        <v>882355</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>970044</v>
+        <v>967185</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5717022340942501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5471783135124373</v>
+        <v>0.5447302282106584</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5988660620513674</v>
+        <v>0.5971010798918956</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>437147</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404711</v>
+        <v>402724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>468628</v>
+        <v>467534</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4549301283570655</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.421174742953621</v>
+        <v>0.4191063212948373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4876917762833148</v>
+        <v>0.4865532099887913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>235</v>
@@ -3248,19 +3248,19 @@
         <v>256609</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231967</v>
+        <v>230720</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>284011</v>
+        <v>283129</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3894576524495781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3520580991023501</v>
+        <v>0.350165464662036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4310447953463943</v>
+        <v>0.4297069549029902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>645</v>
@@ -3269,19 +3269,19 @@
         <v>693757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>649757</v>
+        <v>652616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>733481</v>
+        <v>737446</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4282977659057499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4011339379486326</v>
+        <v>0.4028989201081044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4528216864875627</v>
+        <v>0.4552697717893416</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>214332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>194442</v>
+        <v>193686</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>235337</v>
+        <v>233710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5173765174961577</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4693639742879347</v>
+        <v>0.4675397703090098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5680829212008823</v>
+        <v>0.5641555486478151</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>368</v>
@@ -3394,19 +3394,19 @@
         <v>401120</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>375247</v>
+        <v>375031</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>425685</v>
+        <v>427088</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.570510131213975</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5337111623841537</v>
+        <v>0.5334043708969789</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6054481571495794</v>
+        <v>0.6074438141506332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>575</v>
@@ -3415,19 +3415,19 @@
         <v>615451</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>580441</v>
+        <v>582386</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>650334</v>
+        <v>651334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.550810562065679</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5194771038943735</v>
+        <v>0.5212179599654309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5820297719882901</v>
+        <v>0.5829238868510888</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>199934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178929</v>
+        <v>180556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>219824</v>
+        <v>220580</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4826234825038423</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4319170787991177</v>
+        <v>0.435844451352185</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5306360257120654</v>
+        <v>0.5324602296909904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>281</v>
@@ -3465,19 +3465,19 @@
         <v>301970</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>277405</v>
+        <v>276002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>327843</v>
+        <v>328059</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.429489868786025</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3945518428504206</v>
+        <v>0.3925561858493667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4662888376158463</v>
+        <v>0.4665956291030211</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>468</v>
@@ -3486,19 +3486,19 @@
         <v>501905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>467022</v>
+        <v>466022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>536915</v>
+        <v>534970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.449189437934321</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.41797022801171</v>
+        <v>0.4170761131489112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4805228961056267</v>
+        <v>0.4787820400345691</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>71746</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58658</v>
+        <v>59645</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84310</v>
+        <v>84995</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.467757345513851</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3824330068469865</v>
+        <v>0.3888645511595182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.549673226482481</v>
+        <v>0.5541404991457601</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>407</v>
@@ -3611,19 +3611,19 @@
         <v>430321</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>396861</v>
+        <v>399435</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>459695</v>
+        <v>463418</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4411581019356016</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4068561905270553</v>
+        <v>0.4094946000280166</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4712719584476981</v>
+        <v>0.4750888463755403</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>475</v>
@@ -3632,19 +3632,19 @@
         <v>502067</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>469672</v>
+        <v>468662</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>539372</v>
+        <v>534542</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4447723796671889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4160743429187631</v>
+        <v>0.4151800859551877</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4778207025679889</v>
+        <v>0.4735419263168197</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>81636</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69072</v>
+        <v>68387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94724</v>
+        <v>93737</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5322426544861489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.450326773517519</v>
+        <v>0.4458595008542401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6175669931530139</v>
+        <v>0.6111354488404819</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>512</v>
@@ -3682,19 +3682,19 @@
         <v>545113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>515739</v>
+        <v>512016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>578573</v>
+        <v>575999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5588418980643984</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5287280415523018</v>
+        <v>0.5249111536244596</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5931438094729445</v>
+        <v>0.590505399971983</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>594</v>
@@ -3703,19 +3703,19 @@
         <v>626750</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>589445</v>
+        <v>594275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>659145</v>
+        <v>660155</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5552276203328111</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5221792974320111</v>
+        <v>0.5264580736831803</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5839256570812369</v>
+        <v>0.5848199140448124</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1423648</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1366594</v>
+        <v>1370064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1476294</v>
+        <v>1478201</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5187642531478498</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4979740032022697</v>
+        <v>0.4992385391819871</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5379479247244126</v>
+        <v>0.538642784075922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1579</v>
@@ -3828,19 +3828,19 @@
         <v>1698392</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1639045</v>
+        <v>1639239</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1753142</v>
+        <v>1756956</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.541683033101574</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5227550498562289</v>
+        <v>0.5228169676872327</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5591449921029608</v>
+        <v>0.5603612521097091</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2914</v>
@@ -3849,19 +3849,19 @@
         <v>3122040</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3039981</v>
+        <v>3042256</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3201051</v>
+        <v>3200581</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5309858678629396</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5170294312146536</v>
+        <v>0.517416359809983</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5444237361940508</v>
+        <v>0.5443437510813195</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1320659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1268013</v>
+        <v>1266106</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1377713</v>
+        <v>1374243</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4812357468521502</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4620520752755874</v>
+        <v>0.461357215924078</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5020259967977304</v>
+        <v>0.5007614608180129</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1326</v>
@@ -3899,19 +3899,19 @@
         <v>1437006</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1382256</v>
+        <v>1378442</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1496353</v>
+        <v>1496159</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.458316966898426</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4408550078970392</v>
+        <v>0.4396387478902909</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4772449501437711</v>
+        <v>0.4771830323127674</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2556</v>
@@ -3920,19 +3920,19 @@
         <v>2757665</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2678654</v>
+        <v>2679124</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2839724</v>
+        <v>2837449</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4690141321370604</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4555762638059488</v>
+        <v>0.4556562489186805</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4829705687853463</v>
+        <v>0.4825836401900169</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>118735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100656</v>
+        <v>102140</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134540</v>
+        <v>135154</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4110263627306687</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.348439846468502</v>
+        <v>0.3535769078322216</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4657389677151121</v>
+        <v>0.467862570178759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -4287,19 +4287,19 @@
         <v>140688</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123746</v>
+        <v>122084</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158788</v>
+        <v>156847</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5133176140649953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.451505071027858</v>
+        <v>0.445439429092657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5793584235830762</v>
+        <v>0.5722766580514284</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>248</v>
@@ -4308,19 +4308,19 @@
         <v>259423</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236093</v>
+        <v>234752</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>284873</v>
+        <v>284615</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4608273363705465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4193854752797497</v>
+        <v>0.4170031226453582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5060356997252441</v>
+        <v>0.5055774812721292</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>170140</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154335</v>
+        <v>153721</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>188219</v>
+        <v>186735</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5889736372693313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.534261032284888</v>
+        <v>0.53213742982124</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.651560153531498</v>
+        <v>0.6464230921677784</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -4358,19 +4358,19 @@
         <v>133387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115287</v>
+        <v>117228</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150329</v>
+        <v>151991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4866823859350047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4206415764169237</v>
+        <v>0.4277233419485716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5484949289721418</v>
+        <v>0.5545605709073429</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -4379,19 +4379,19 @@
         <v>303527</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>278077</v>
+        <v>278335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>326857</v>
+        <v>328198</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5391726636294536</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4939643002747559</v>
+        <v>0.4944225187278707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5806145247202504</v>
+        <v>0.5829968773546417</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>132052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115095</v>
+        <v>116443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149304</v>
+        <v>150365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4670719547749576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4070950941505782</v>
+        <v>0.4118628483704956</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5280957663026828</v>
+        <v>0.5318475000031414</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>165</v>
@@ -4504,19 +4504,19 @@
         <v>171396</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>154153</v>
+        <v>154600</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>189330</v>
+        <v>188715</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5632794737999871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5066104884691631</v>
+        <v>0.5080785515940024</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6222161538280446</v>
+        <v>0.6201946638161027</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>289</v>
@@ -4525,19 +4525,19 @@
         <v>303447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>280790</v>
+        <v>278177</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>327250</v>
+        <v>328766</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5169426010951821</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.478344132441059</v>
+        <v>0.4738925437653968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5574916879573544</v>
+        <v>0.5600739780553724</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>150670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133418</v>
+        <v>132357</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>167627</v>
+        <v>166279</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5329280452250423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4719042336973172</v>
+        <v>0.4681524999968586</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5929049058494218</v>
+        <v>0.588137151629505</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -4575,19 +4575,19 @@
         <v>132887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114953</v>
+        <v>115568</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150130</v>
+        <v>149683</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4367205262000128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3777838461719553</v>
+        <v>0.3798053361838972</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4933895115308369</v>
+        <v>0.4919214484059977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>268</v>
@@ -4596,19 +4596,19 @@
         <v>283557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>259754</v>
+        <v>258238</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>306214</v>
+        <v>308827</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4830573989048179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4425083120426456</v>
+        <v>0.4399260219446276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.521655867558941</v>
+        <v>0.5261074562346032</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>181162</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161570</v>
+        <v>161268</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202913</v>
+        <v>201835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4288754359512263</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3824937134792636</v>
+        <v>0.3817809060283718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4803683910923412</v>
+        <v>0.4778175511264459</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -4721,19 +4721,19 @@
         <v>65724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52899</v>
+        <v>53405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78072</v>
+        <v>79909</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4388027553734477</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.353174895776141</v>
+        <v>0.3565506557230584</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.521237732920634</v>
+        <v>0.5335070501290957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>234</v>
@@ -4742,19 +4742,19 @@
         <v>246886</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>222272</v>
+        <v>223649</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>270090</v>
+        <v>270536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4314740780176707</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3884563477528858</v>
+        <v>0.3908641425221414</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4720261462511273</v>
+        <v>0.4728068643639353</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>241249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>219498</v>
+        <v>220576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>260841</v>
+        <v>261143</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5711245640487737</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5196316089076588</v>
+        <v>0.5221824488735541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6175062865207365</v>
+        <v>0.6182190939716282</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -4792,19 +4792,19 @@
         <v>84057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71709</v>
+        <v>69872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96882</v>
+        <v>96376</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5611972446265523</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.478762267079366</v>
+        <v>0.4664929498709042</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.646825104223859</v>
+        <v>0.6434493442769416</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>310</v>
@@ -4813,19 +4813,19 @@
         <v>325306</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>302102</v>
+        <v>301656</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>349920</v>
+        <v>348543</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5685259219823292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5279738537488728</v>
+        <v>0.5271931356360647</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6115436522471143</v>
+        <v>0.6091358574778587</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>343726</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>315961</v>
+        <v>316321</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>372818</v>
+        <v>372438</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3938057968789321</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3619954847547153</v>
+        <v>0.3624075843499575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4271365553428454</v>
+        <v>0.4267012304202986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>341</v>
@@ -4938,19 +4938,19 @@
         <v>352145</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>329008</v>
+        <v>325448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>378625</v>
+        <v>378764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5368076202032486</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5015375384388997</v>
+        <v>0.496109954993583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5771731376165806</v>
+        <v>0.5773850203067283</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>678</v>
@@ -4959,19 +4959,19 @@
         <v>695871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>657863</v>
+        <v>657589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>738472</v>
+        <v>730817</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4551658262429414</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4303048709322113</v>
+        <v>0.4301262463663146</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4830309477349143</v>
+        <v>0.4780237382268842</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>529105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500013</v>
+        <v>500393</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>556870</v>
+        <v>556510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.606194203121068</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5728634446571548</v>
+        <v>0.5732987695797014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6380045152452846</v>
+        <v>0.6375924156500424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -5009,19 +5009,19 @@
         <v>303854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>277374</v>
+        <v>277235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>326991</v>
+        <v>330551</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4631923797967515</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4228268623834194</v>
+        <v>0.4226149796932717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4984624615611003</v>
+        <v>0.5038900450064169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>797</v>
@@ -5030,19 +5030,19 @@
         <v>832958</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>790357</v>
+        <v>798012</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>870966</v>
+        <v>871240</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5448341737570586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5169690522650857</v>
+        <v>0.5219762617731158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5696951290677887</v>
+        <v>0.5698737536336854</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>207942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>187001</v>
+        <v>187089</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>231321</v>
+        <v>230567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4325777014184591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3890146030780319</v>
+        <v>0.3891975384003858</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4812113921549374</v>
+        <v>0.4796441651161174</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>288</v>
@@ -5155,19 +5155,19 @@
         <v>304468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>279848</v>
+        <v>279116</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>331361</v>
+        <v>332925</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4616709174469053</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.424339840285054</v>
+        <v>0.4232300061919188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5024489166059243</v>
+        <v>0.5048217712409924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>487</v>
@@ -5176,19 +5176,19 @@
         <v>512410</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>478231</v>
+        <v>478228</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>546764</v>
+        <v>547616</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4494052711565587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4194290386756716</v>
+        <v>0.4194259725195482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4795351613172985</v>
+        <v>0.4802826509902728</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>272763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249384</v>
+        <v>250138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293704</v>
+        <v>293616</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5674222985815409</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5187886078450626</v>
+        <v>0.5203558348838827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6109853969219682</v>
+        <v>0.6108024615996143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>335</v>
@@ -5226,19 +5226,19 @@
         <v>355023</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>328130</v>
+        <v>326566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>379643</v>
+        <v>380375</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5383290825530948</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4975510833940757</v>
+        <v>0.4951782287590077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5756601597149461</v>
+        <v>0.5767699938080811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>604</v>
@@ -5247,19 +5247,19 @@
         <v>627786</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>593432</v>
+        <v>592580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>661965</v>
+        <v>661968</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5505947288434413</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5204648386827012</v>
+        <v>0.5197173490097271</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5805709613243285</v>
+        <v>0.5805740274804517</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>56503</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44184</v>
+        <v>44030</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69501</v>
+        <v>68617</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3758871549112078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2939379466515856</v>
+        <v>0.2929119120661774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4623613677695071</v>
+        <v>0.4564818242922579</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>309</v>
@@ -5372,19 +5372,19 @@
         <v>345573</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>317532</v>
+        <v>314461</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>378696</v>
+        <v>374362</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3841848124172889</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3530105683828019</v>
+        <v>0.3495961304401474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.42100829385537</v>
+        <v>0.4161903716827361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>360</v>
@@ -5393,19 +5393,19 @@
         <v>402076</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>372637</v>
+        <v>368447</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>436300</v>
+        <v>434819</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3829967125834051</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3549550096489009</v>
+        <v>0.3509630952765209</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4155964989222158</v>
+        <v>0.4141858027887398</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>93815</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80817</v>
+        <v>81701</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>106134</v>
+        <v>106288</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6241128450887922</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5376386322304929</v>
+        <v>0.5435181757077421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7060620533484143</v>
+        <v>0.7070880879338226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>504</v>
@@ -5443,19 +5443,19 @@
         <v>553925</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>520802</v>
+        <v>525136</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>581966</v>
+        <v>585037</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.615815187582711</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5789917061446301</v>
+        <v>0.583809628317264</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6469894316171981</v>
+        <v>0.6504038695598526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>594</v>
@@ -5464,19 +5464,19 @@
         <v>647740</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>613516</v>
+        <v>614997</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>677179</v>
+        <v>681369</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6170032874165948</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5844035010777842</v>
+        <v>0.5858141972112602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6450449903510989</v>
+        <v>0.6490369047234792</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1040119</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>989974</v>
+        <v>992070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1090561</v>
+        <v>1090047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4164037942453392</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3963285263871866</v>
+        <v>0.3971676611806079</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4365979748816552</v>
+        <v>0.4363922200112189</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1300</v>
@@ -5589,19 +5589,19 @@
         <v>1379995</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1322608</v>
+        <v>1322461</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1433568</v>
+        <v>1432931</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4688872364158343</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4493887527116727</v>
+        <v>0.449338806314301</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4870902606019802</v>
+        <v>0.4868735200154126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2296</v>
@@ -5610,19 +5610,19 @@
         <v>2420113</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2345304</v>
+        <v>2348328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2491952</v>
+        <v>2501360</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4447930201513728</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4310439371761231</v>
+        <v>0.4315995449904639</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4579962415651334</v>
+        <v>0.459725490943988</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1457742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1407300</v>
+        <v>1407814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1507887</v>
+        <v>1505791</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5835962057546609</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5634020251183447</v>
+        <v>0.563607779988781</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6036714736128133</v>
+        <v>0.6028323388193921</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1452</v>
@@ -5660,19 +5660,19 @@
         <v>1563132</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1509559</v>
+        <v>1510196</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1620519</v>
+        <v>1620666</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5311127635841657</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5129097393980199</v>
+        <v>0.5131264799845874</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5506112472883273</v>
+        <v>0.550661193685699</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2856</v>
@@ -5681,19 +5681,19 @@
         <v>3020874</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2949035</v>
+        <v>2939627</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3095683</v>
+        <v>3092659</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5552069798486272</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5420037584348664</v>
+        <v>0.5402745090560118</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5689560628238768</v>
+        <v>0.568400455009536</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>75885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60428</v>
+        <v>59042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92960</v>
+        <v>93031</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1995218499229903</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1588810610555674</v>
+        <v>0.1552373287480853</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2444164805273593</v>
+        <v>0.2446033818086358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -6048,19 +6048,19 @@
         <v>80001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66325</v>
+        <v>66945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93997</v>
+        <v>94707</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2241301716271842</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1858164015129507</v>
+        <v>0.1875549564309602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2633435786674941</v>
+        <v>0.2653307630650824</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -6069,19 +6069,19 @@
         <v>155886</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>136833</v>
+        <v>135099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180706</v>
+        <v>178442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2114355221515377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1855933611938105</v>
+        <v>0.1832415125911318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2451009271594216</v>
+        <v>0.2420293281769288</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>304451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287376</v>
+        <v>287305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>319908</v>
+        <v>321294</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8004781500770096</v>
+        <v>0.8004781500770097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7555835194726406</v>
+        <v>0.7553966181913641</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8411189389444326</v>
+        <v>0.8447626712519148</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>406</v>
@@ -6119,19 +6119,19 @@
         <v>276937</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>262941</v>
+        <v>262231</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290613</v>
+        <v>289993</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7758698283728158</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.736656421332506</v>
+        <v>0.7346692369349178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8141835984870491</v>
+        <v>0.8124450435690398</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>741</v>
@@ -6140,19 +6140,19 @@
         <v>581387</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>556567</v>
+        <v>558831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600440</v>
+        <v>602174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7885644778484623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7548990728405779</v>
+        <v>0.7579706718230711</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8144066388061895</v>
+        <v>0.8167584874088679</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>64743</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51244</v>
+        <v>51468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81519</v>
+        <v>81484</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2099954141381096</v>
+        <v>0.2099954141381095</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.166210522872112</v>
+        <v>0.1669354509149995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2644062937238048</v>
+        <v>0.2642930131680084</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -6265,19 +6265,19 @@
         <v>76576</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63980</v>
+        <v>64312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91132</v>
+        <v>90884</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2455786832917161</v>
+        <v>0.2455786832917162</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2051856997153256</v>
+        <v>0.2062503521656484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2922612279887262</v>
+        <v>0.291467019271668</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -6286,19 +6286,19 @@
         <v>141319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124073</v>
+        <v>120064</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>161168</v>
+        <v>161547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2278877230169454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.200077836255166</v>
+        <v>0.1936121592582438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2598964719546079</v>
+        <v>0.2605078319824434</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>243565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>226789</v>
+        <v>226824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>257064</v>
+        <v>256840</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7900045858618904</v>
+        <v>0.7900045858618905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7355937062761955</v>
+        <v>0.7357069868319919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8337894771278882</v>
+        <v>0.8330645490850005</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -6336,19 +6336,19 @@
         <v>235241</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>220685</v>
+        <v>220933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>247837</v>
+        <v>247505</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7544213167082838</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7077387720112739</v>
+        <v>0.7085329807283318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7948143002846745</v>
+        <v>0.7937496478343515</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>612</v>
@@ -6357,19 +6357,19 @@
         <v>478806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>458957</v>
+        <v>458578</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>496052</v>
+        <v>500061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7721122769830546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7401035280453924</v>
+        <v>0.7394921680175566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.799922163744834</v>
+        <v>0.8063878407417562</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>97519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81839</v>
+        <v>81455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116057</v>
+        <v>114051</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2803741775625619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2352911547670436</v>
+        <v>0.2341892664981393</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3336708948066034</v>
+        <v>0.3279035697239243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -6482,19 +6482,19 @@
         <v>35764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27679</v>
+        <v>28123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44989</v>
+        <v>44781</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2378418700838615</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1840762460611964</v>
+        <v>0.1870245243373479</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2991957101386022</v>
+        <v>0.2978102382082471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -6503,19 +6503,19 @@
         <v>133284</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114981</v>
+        <v>116586</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153502</v>
+        <v>152920</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2675366076928151</v>
+        <v>0.2675366076928152</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2307990323512364</v>
+        <v>0.2340199275257678</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3081214744729339</v>
+        <v>0.3069526065923301</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>250300</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>231762</v>
+        <v>233768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265980</v>
+        <v>266364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.719625822437438</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6663291051933965</v>
+        <v>0.6720964302760758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7647088452329566</v>
+        <v>0.7658107335018607</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -6553,19 +6553,19 @@
         <v>114604</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>105379</v>
+        <v>105587</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>122689</v>
+        <v>122245</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7621581299161384</v>
+        <v>0.7621581299161386</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7008042898613978</v>
+        <v>0.7021897617917529</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8159237539388039</v>
+        <v>0.8129754756626519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>458</v>
@@ -6574,19 +6574,19 @@
         <v>364904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>344686</v>
+        <v>345268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>383207</v>
+        <v>381602</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7324633923071847</v>
+        <v>0.7324633923071848</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6918785255270661</v>
+        <v>0.6930473934076697</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7692009676487636</v>
+        <v>0.7659800724742323</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>207177</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>180900</v>
+        <v>181907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>233095</v>
+        <v>234924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2656446622137618</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2319523663124168</v>
+        <v>0.2332441189254042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2988776604347262</v>
+        <v>0.3012232775788464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>215</v>
@@ -6699,19 +6699,19 @@
         <v>153211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134287</v>
+        <v>133298</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>173425</v>
+        <v>172697</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2341229169735629</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2052052160748601</v>
+        <v>0.2036939822142194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2650122607772304</v>
+        <v>0.2638999541489604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>435</v>
@@ -6720,19 +6720,19 @@
         <v>360388</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>330145</v>
+        <v>331058</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>394584</v>
+        <v>394004</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.251262814417311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2301773427096462</v>
+        <v>0.230814439428787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2751044563663096</v>
+        <v>0.2747005304309519</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>572724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>546806</v>
+        <v>544977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>599001</v>
+        <v>597994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7343553377862383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7011223395652738</v>
+        <v>0.6987767224211537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7680476336875832</v>
+        <v>0.766755881074596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>747</v>
@@ -6770,19 +6770,19 @@
         <v>501193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>480979</v>
+        <v>481707</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>520117</v>
+        <v>521106</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7658770830264372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7349877392227694</v>
+        <v>0.7361000458510396</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7947947839251399</v>
+        <v>0.7963060177857804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1354</v>
@@ -6791,19 +6791,19 @@
         <v>1073917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1039721</v>
+        <v>1040301</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1104160</v>
+        <v>1103247</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7487371855826892</v>
+        <v>0.7487371855826889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7248955436336906</v>
+        <v>0.725299469569048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7698226572903545</v>
+        <v>0.7691855605712129</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>81612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65298</v>
+        <v>66163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98637</v>
+        <v>98559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2099508133906825</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1679833000357749</v>
+        <v>0.1702074684717406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2537480190917076</v>
+        <v>0.2535473093705757</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>336</v>
@@ -6916,19 +6916,19 @@
         <v>213869</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>195761</v>
+        <v>192963</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235680</v>
+        <v>233904</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3147684337261777</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2881165066250446</v>
+        <v>0.2839987881113499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3468688517333927</v>
+        <v>0.3442541971004882</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>426</v>
@@ -6937,19 +6937,19 @@
         <v>295482</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>271252</v>
+        <v>271473</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>323034</v>
+        <v>323805</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2766240476764254</v>
+        <v>0.2766240476764255</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2539411819867323</v>
+        <v>0.2541482098107149</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3024182538429977</v>
+        <v>0.303140236017387</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>307108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>290083</v>
+        <v>290161</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>323422</v>
+        <v>322557</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7900491866093173</v>
+        <v>0.7900491866093176</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7462519809082914</v>
+        <v>0.7464526906294242</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8320166999642249</v>
+        <v>0.8297925315282595</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>741</v>
@@ -6987,19 +6987,19 @@
         <v>465581</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>443770</v>
+        <v>445546</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>483689</v>
+        <v>486487</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6852315662738223</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6531311482666072</v>
+        <v>0.655745802899512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7118834933749556</v>
+        <v>0.7160012118886501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1053</v>
@@ -7008,19 +7008,19 @@
         <v>772688</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>745136</v>
+        <v>744365</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>796918</v>
+        <v>796697</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7233759523235747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6975817461570022</v>
+        <v>0.6968597639826127</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7460588180132676</v>
+        <v>0.7458517901892849</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>24435</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14045</v>
+        <v>13850</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37896</v>
+        <v>37318</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2373549116675719</v>
+        <v>0.237354911667572</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1364299197340817</v>
+        <v>0.1345321172891282</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3681018309328017</v>
+        <v>0.3624902032383442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>329</v>
@@ -7133,19 +7133,19 @@
         <v>223683</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>201695</v>
+        <v>202997</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>247890</v>
+        <v>245232</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3435410913385622</v>
+        <v>0.3435410913385621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3097712422088742</v>
+        <v>0.3117699899319136</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3807178940972568</v>
+        <v>0.3766360351632292</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>345</v>
@@ -7154,19 +7154,19 @@
         <v>248119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>222921</v>
+        <v>223170</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>274216</v>
+        <v>274993</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3290438372720259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2956282726557573</v>
+        <v>0.2959581874888005</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3636531849828998</v>
+        <v>0.3646834175731056</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>78514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65053</v>
+        <v>65631</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88904</v>
+        <v>89099</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7626450883324281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6318981690671981</v>
+        <v>0.6375097967616543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8635700802659182</v>
+        <v>0.8654678827108715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>657</v>
@@ -7204,19 +7204,19 @@
         <v>427428</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>403221</v>
+        <v>405879</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>449416</v>
+        <v>448114</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6564589086614381</v>
+        <v>0.656458908661438</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6192821059027432</v>
+        <v>0.6233639648367707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6902287577911261</v>
+        <v>0.6882300100680866</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>694</v>
@@ -7225,19 +7225,19 @@
         <v>505941</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479844</v>
+        <v>479067</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>531139</v>
+        <v>530890</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6709561627279742</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6363468150171001</v>
+        <v>0.6353165824268944</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7043717273442427</v>
+        <v>0.7040418125111992</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>551372</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>508731</v>
+        <v>507400</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>594821</v>
+        <v>598285</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2388926685874204</v>
+        <v>0.2388926685874203</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2204176090999952</v>
+        <v>0.2198409098207681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2577178141823878</v>
+        <v>0.2592187753931459</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1150</v>
@@ -7350,19 +7350,19 @@
         <v>783104</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>741062</v>
+        <v>743143</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>823766</v>
+        <v>824795</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2792721810945234</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2642792598930707</v>
+        <v>0.2650212195847623</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2937731154706553</v>
+        <v>0.2941400903750758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1714</v>
@@ -7371,19 +7371,19 @@
         <v>1334476</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1274467</v>
+        <v>1271549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1400314</v>
+        <v>1397040</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2610415385446823</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2493030173997684</v>
+        <v>0.2487321639330135</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2739203682172123</v>
+        <v>0.2732799211667011</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>1756661</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1713212</v>
+        <v>1709748</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1799302</v>
+        <v>1800633</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7611073314125798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7422821858176125</v>
+        <v>0.7407812246068541</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.779582390900005</v>
+        <v>0.7801590901792318</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3071</v>
@@ -7421,19 +7421,19 @@
         <v>2020984</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1980322</v>
+        <v>1979293</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2063026</v>
+        <v>2060945</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7207278189054768</v>
+        <v>0.7207278189054767</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7062268845293451</v>
+        <v>0.7058599096249244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7357207401069293</v>
+        <v>0.7349787804152378</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4912</v>
@@ -7442,19 +7442,19 @@
         <v>3777645</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3711807</v>
+        <v>3715081</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3837654</v>
+        <v>3840572</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7389584614553176</v>
+        <v>0.7389584614553177</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7260796317827877</v>
+        <v>0.7267200788332988</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7506969826002315</v>
+        <v>0.7512678360669865</v>
       </c>
     </row>
     <row r="24">
